--- a/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -713,9 +713,6 @@
     <t>ACTIVIDAD</t>
   </si>
   <si>
-    <t>Aborda el examen de un soneto de Petrarca</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Actividad para investigar y analizar en detalle el </t>
     </r>
@@ -1052,6 +1049,9 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Los discursos expositivos y narrativos en los medios de comunicación</t>
+  </si>
+  <si>
+    <t>Proyecto: aborda el examen de un soneto de Petrarca</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2126,8 +2126,8 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2373,7 +2373,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>19</v>
@@ -2410,7 +2410,7 @@
         <v>99</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>101</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>19</v>
@@ -2578,7 +2578,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>19</v>
@@ -2613,7 +2613,7 @@
         <v>96</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>125</v>
@@ -2674,7 +2674,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>125</v>
@@ -2735,7 +2735,7 @@
         <v>96</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>131</v>
@@ -2796,7 +2796,7 @@
         <v>96</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>131</v>
@@ -2822,7 +2822,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>19</v>
@@ -2857,7 +2857,7 @@
         <v>96</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>131</v>
@@ -3001,7 +3001,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>19</v>
@@ -3016,7 +3016,7 @@
         <v>102</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U15" s="32" t="s">
         <v>103</v>
@@ -3033,12 +3033,12 @@
         <v>91</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -3047,7 +3047,7 @@
         <v>93</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>69</v>
@@ -3060,7 +3060,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>19</v>
@@ -3069,16 +3069,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="32" t="s">
         <v>166</v>
-      </c>
-      <c r="U16" s="32" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3092,12 +3092,12 @@
         <v>91</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -3106,7 +3106,7 @@
         <v>105</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>69</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P17" s="10" t="s">
         <v>19</v>
@@ -3134,7 +3134,7 @@
         <v>99</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U17" s="32" t="s">
         <v>101</v>
@@ -3151,14 +3151,14 @@
         <v>91</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -3167,7 +3167,7 @@
         <v>93</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>70</v>
@@ -3178,25 +3178,25 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="U18" s="32" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3210,14 +3210,14 @@
         <v>91</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>144</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -3226,7 +3226,7 @@
         <v>105</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K19" s="30" t="s">
         <v>69</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>19</v>
@@ -3254,7 +3254,7 @@
         <v>99</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>101</v>
@@ -3271,14 +3271,14 @@
         <v>91</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H20" s="50">
         <v>18</v>
@@ -3287,7 +3287,7 @@
         <v>105</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K20" s="48" t="s">
         <v>69</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="N20" s="52"/>
       <c r="O20" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P20" s="53" t="s">
         <v>19</v>
@@ -3315,7 +3315,7 @@
         <v>99</v>
       </c>
       <c r="T20" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U20" s="55" t="s">
         <v>101</v>
@@ -3332,14 +3332,14 @@
         <v>91</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H21" s="50">
         <v>19</v>
@@ -3348,7 +3348,7 @@
         <v>93</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" s="48" t="s">
         <v>69</v>
@@ -3361,7 +3361,7 @@
         <v>42</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P21" s="53" t="s">
         <v>19</v>
@@ -3370,16 +3370,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="S21" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="S21" s="51" t="s">
-        <v>165</v>
-      </c>
       <c r="T21" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U21" s="55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -3393,14 +3393,14 @@
         <v>91</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>144</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" s="50">
         <v>20</v>
@@ -3409,7 +3409,7 @@
         <v>105</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K22" s="48" t="s">
         <v>69</v>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="N22" s="52"/>
       <c r="O22" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P22" s="53" t="s">
         <v>19</v>
@@ -3437,7 +3437,7 @@
         <v>99</v>
       </c>
       <c r="T22" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U22" s="55" t="s">
         <v>101</v>
@@ -3454,14 +3454,14 @@
         <v>91</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -3470,7 +3470,7 @@
         <v>93</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>70</v>
@@ -3481,25 +3481,25 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="T23" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="U23" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="U23" s="32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -3513,16 +3513,16 @@
         <v>91</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>203</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>204</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -3531,7 +3531,7 @@
         <v>93</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>70</v>
@@ -3542,25 +3542,25 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -3574,14 +3574,14 @@
         <v>91</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3590,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>70</v>
@@ -3601,25 +3601,25 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3633,16 +3633,16 @@
         <v>91</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>217</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>218</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3651,7 +3651,7 @@
         <v>93</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>70</v>
@@ -3662,25 +3662,25 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3694,16 +3694,16 @@
         <v>91</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3712,7 +3712,7 @@
         <v>105</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>69</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>19</v>
@@ -3740,7 +3740,7 @@
         <v>99</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U27" s="32" t="s">
         <v>101</v>
@@ -3757,14 +3757,14 @@
         <v>91</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>144</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3773,7 +3773,7 @@
         <v>105</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>69</v>
@@ -3784,7 +3784,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>19</v>
@@ -3799,7 +3799,7 @@
         <v>99</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U28" s="32" t="s">
         <v>101</v>
@@ -3821,7 +3821,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
       <c r="G29" s="28" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3830,7 +3830,7 @@
         <v>105</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>70</v>
@@ -3841,7 +3841,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>19</v>
@@ -3878,7 +3878,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
       <c r="G30" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3887,7 +3887,7 @@
         <v>105</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>70</v>
@@ -3898,7 +3898,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>19</v>
@@ -3930,12 +3930,12 @@
         <v>91</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
       <c r="G31" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3944,7 +3944,7 @@
         <v>105</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>69</v>
@@ -3975,12 +3975,12 @@
         <v>91</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
       <c r="G32" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -3989,7 +3989,7 @@
         <v>105</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K32" s="30" t="s">
         <v>69</v>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>19</v>
@@ -4017,7 +4017,7 @@
         <v>99</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U32" s="32" t="s">
         <v>101</v>
@@ -4034,7 +4034,7 @@
         <v>91</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
@@ -4046,7 +4046,7 @@
         <v>105</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" s="30" t="s">
         <v>69</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>20</v>
@@ -4074,7 +4074,7 @@
         <v>99</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U33" s="32" t="s">
         <v>101</v>
@@ -5005,11 +5005,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5025,9 +5020,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion02/Escaleta_LE_10_02_CO_version2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris\Documents\GitHub\Lenguaje\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,11 +20,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +36,7 @@
     <author>Luis Felipe Pertuz Urrego</author>
   </authors>
   <commentList>
-    <comment ref="U20" authorId="0">
+    <comment ref="U20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -446,9 +451,6 @@
       </rPr>
       <t xml:space="preserve"> (podría ser un capítulo corto al cual realizar elisiones). Luego, a partir de este, tomar secciones para realizar 5 preguntas de interpretación.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad diagnóstica con base en la lectura sobre el conversatorio </t>
   </si>
   <si>
     <t>Recurso M5C-01</t>
@@ -605,22 +607,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Interactivo con vídeo que sirve para analizar los elementos de la novela picaresca y la obra </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>El Lazarillo de Tormes</t>
-    </r>
-  </si>
-  <si>
     <t>La poesía religiosa del renacimiento</t>
   </si>
   <si>
@@ -636,13 +622,7 @@
     <t>Interactivo que trata la poesía religiosa de fray Luis de León, san Juan de la Cruz y santa Teresa de Jesús</t>
   </si>
   <si>
-    <t>Vídeo que presenta la figura de Garcilaso de la Vega, además de su vida y su poesía</t>
-  </si>
-  <si>
     <t>Analiza un soneto de Garcilaso de la Vega</t>
-  </si>
-  <si>
-    <t>Vídeo que permite enmarcar la situación de las artes en España durante la época del Renacimiento</t>
   </si>
   <si>
     <t>Competencias</t>
@@ -968,9 +948,6 @@
     <t>El guion de cine y las series televisivas</t>
   </si>
   <si>
-    <t>Interactivo que sirve para analizar y reflexionar sobre las propiedades texuales y narrativas de los formatos cinematográficos</t>
-  </si>
-  <si>
     <t>Recurso M101A-03</t>
   </si>
   <si>
@@ -1052,6 +1029,34 @@
   </si>
   <si>
     <t>Proyecto: aborda el examen de un soneto de Petrarca</t>
+  </si>
+  <si>
+    <t>Actividad diagnóstica  sobre el conversatorio, con base en la lectura</t>
+  </si>
+  <si>
+    <t>Video que permite enmarcar la situación de las artes en España durante la época del Renacimiento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactivo con video que sirve para analizar los elementos de la novela picaresca y la obra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El Lazarillo de Tormes</t>
+    </r>
+  </si>
+  <si>
+    <t>Video que presenta la figura de Garcilaso de la Vega, además de su vida y su poesía</t>
+  </si>
+  <si>
+    <t>Interactivo que sirve para analizar y reflexionar sobre las propiedades textuales y narrativas de los formatos cinematográficos</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2123,33 +2128,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="L25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="24.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="11" customWidth="1"/>
-    <col min="8" max="9" width="4.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="65.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="43" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="4.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="65.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="43" customWidth="1"/>
     <col min="13" max="13" width="6" style="43" customWidth="1"/>
     <col min="14" max="14" width="6" style="11" customWidth="1"/>
     <col min="15" max="15" width="60" style="11" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="2" customWidth="1"/>
-    <col min="17" max="21" width="13.1640625" style="11" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="11"/>
+    <col min="16" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="21" width="13.140625" style="11" customWidth="1"/>
+    <col min="22" max="16384" width="10.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="15" thickBot="1">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -2239,7 +2244,7 @@
       <c r="T2" s="58"/>
       <c r="U2" s="58"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
@@ -2373,7 +2378,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -2382,7 +2387,7 @@
         <v>105</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>69</v>
@@ -2395,7 +2400,7 @@
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>19</v>
@@ -2410,13 +2415,13 @@
         <v>99</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>68</v>
       </c>
@@ -2432,7 +2437,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -2441,7 +2446,7 @@
         <v>105</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K6" s="30" t="s">
         <v>69</v>
@@ -2454,7 +2459,7 @@
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="29" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>19</v>
@@ -2469,13 +2474,13 @@
         <v>99</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U6" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>68</v>
       </c>
@@ -2492,10 +2497,10 @@
         <v>97</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -2504,7 +2509,7 @@
         <v>105</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>69</v>
@@ -2517,7 +2522,7 @@
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P7" s="10" t="s">
         <v>19</v>
@@ -2532,13 +2537,13 @@
         <v>99</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U7" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>68</v>
       </c>
@@ -2555,10 +2560,10 @@
         <v>97</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -2567,18 +2572,18 @@
         <v>93</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>19</v>
@@ -2593,13 +2598,13 @@
         <v>102</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U8" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>68</v>
       </c>
@@ -2613,13 +2618,13 @@
         <v>96</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -2628,7 +2633,7 @@
         <v>93</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K9" s="30" t="s">
         <v>70</v>
@@ -2639,7 +2644,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>19</v>
@@ -2654,13 +2659,13 @@
         <v>102</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U9" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>68</v>
       </c>
@@ -2674,13 +2679,13 @@
         <v>96</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -2689,7 +2694,7 @@
         <v>93</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>70</v>
@@ -2700,7 +2705,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>19</v>
@@ -2715,13 +2720,13 @@
         <v>102</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U10" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>68</v>
       </c>
@@ -2735,13 +2740,13 @@
         <v>96</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -2750,7 +2755,7 @@
         <v>93</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>70</v>
@@ -2761,7 +2766,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>19</v>
@@ -2776,13 +2781,13 @@
         <v>102</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U11" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
@@ -2796,13 +2801,13 @@
         <v>96</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -2811,18 +2816,18 @@
         <v>93</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P12" s="10" t="s">
         <v>19</v>
@@ -2837,13 +2842,13 @@
         <v>102</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U12" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -2857,13 +2862,13 @@
         <v>96</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2872,7 +2877,7 @@
         <v>105</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>70</v>
@@ -2883,7 +2888,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P13" s="10" t="s">
         <v>19</v>
@@ -2898,13 +2903,13 @@
         <v>102</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U13" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
@@ -2918,11 +2923,11 @@
         <v>96</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2931,7 +2936,7 @@
         <v>93</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>70</v>
@@ -2942,7 +2947,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>19</v>
@@ -2957,13 +2962,13 @@
         <v>102</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U14" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>68</v>
       </c>
@@ -2977,11 +2982,11 @@
         <v>96</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2990,7 +2995,7 @@
         <v>105</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>70</v>
@@ -3001,7 +3006,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>19</v>
@@ -3016,13 +3021,13 @@
         <v>102</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="U15" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>68</v>
       </c>
@@ -3033,12 +3038,12 @@
         <v>91</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -3047,7 +3052,7 @@
         <v>93</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>69</v>
@@ -3060,7 +3065,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>19</v>
@@ -3069,19 +3074,19 @@
         <v>6</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>68</v>
       </c>
@@ -3092,12 +3097,12 @@
         <v>91</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -3106,7 +3111,7 @@
         <v>105</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>69</v>
@@ -3119,7 +3124,7 @@
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="29" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P17" s="10" t="s">
         <v>19</v>
@@ -3134,13 +3139,13 @@
         <v>99</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="U17" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>68</v>
       </c>
@@ -3151,14 +3156,14 @@
         <v>91</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -3167,7 +3172,7 @@
         <v>93</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>70</v>
@@ -3178,28 +3183,28 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>68</v>
       </c>
@@ -3210,14 +3215,14 @@
         <v>91</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -3226,7 +3231,7 @@
         <v>105</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K19" s="30" t="s">
         <v>69</v>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="N19" s="22"/>
       <c r="O19" s="29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>19</v>
@@ -3254,13 +3259,13 @@
         <v>99</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>68</v>
       </c>
@@ -3271,14 +3276,14 @@
         <v>91</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H20" s="50">
         <v>18</v>
@@ -3287,7 +3292,7 @@
         <v>105</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K20" s="48" t="s">
         <v>69</v>
@@ -3300,7 +3305,7 @@
       </c>
       <c r="N20" s="52"/>
       <c r="O20" s="51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P20" s="53" t="s">
         <v>19</v>
@@ -3315,13 +3320,13 @@
         <v>99</v>
       </c>
       <c r="T20" s="51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U20" s="55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>68</v>
       </c>
@@ -3332,14 +3337,14 @@
         <v>91</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H21" s="50">
         <v>19</v>
@@ -3348,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K21" s="48" t="s">
         <v>69</v>
@@ -3361,7 +3366,7 @@
         <v>42</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P21" s="53" t="s">
         <v>19</v>
@@ -3370,19 +3375,19 @@
         <v>6</v>
       </c>
       <c r="R21" s="51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="S21" s="51" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T21" s="51" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="U21" s="55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>68</v>
       </c>
@@ -3393,14 +3398,14 @@
         <v>91</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="56" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H22" s="50">
         <v>20</v>
@@ -3409,7 +3414,7 @@
         <v>105</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K22" s="48" t="s">
         <v>69</v>
@@ -3422,7 +3427,7 @@
       </c>
       <c r="N22" s="52"/>
       <c r="O22" s="51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P22" s="53" t="s">
         <v>19</v>
@@ -3437,13 +3442,13 @@
         <v>99</v>
       </c>
       <c r="T22" s="51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="U22" s="55" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3454,14 +3459,14 @@
         <v>91</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -3470,7 +3475,7 @@
         <v>93</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>70</v>
@@ -3481,28 +3486,28 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>68</v>
       </c>
@@ -3513,16 +3518,16 @@
         <v>91</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H24" s="9">
         <v>22</v>
@@ -3531,7 +3536,7 @@
         <v>93</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>70</v>
@@ -3542,28 +3547,28 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>68</v>
       </c>
@@ -3574,14 +3579,14 @@
         <v>91</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -3590,7 +3595,7 @@
         <v>93</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>70</v>
@@ -3601,28 +3606,28 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -3633,16 +3638,16 @@
         <v>91</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -3651,7 +3656,7 @@
         <v>93</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>70</v>
@@ -3662,28 +3667,28 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>95</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>68</v>
       </c>
@@ -3694,16 +3699,16 @@
         <v>91</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H27" s="9">
         <v>25</v>
@@ -3712,7 +3717,7 @@
         <v>105</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>69</v>
@@ -3725,7 +3730,7 @@
       </c>
       <c r="N27" s="22"/>
       <c r="O27" s="29" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>19</v>
@@ -3740,13 +3745,13 @@
         <v>99</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="U27" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -3757,14 +3762,14 @@
         <v>91</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H28" s="9">
         <v>26</v>
@@ -3773,7 +3778,7 @@
         <v>105</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>69</v>
@@ -3784,7 +3789,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="29" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>19</v>
@@ -3799,13 +3804,13 @@
         <v>99</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U28" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>68</v>
       </c>
@@ -3816,12 +3821,12 @@
         <v>91</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
       <c r="G29" s="28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H29" s="9">
         <v>27</v>
@@ -3830,18 +3835,18 @@
         <v>105</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>19</v>
@@ -3856,13 +3861,13 @@
         <v>102</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U29" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>68</v>
       </c>
@@ -3873,12 +3878,12 @@
         <v>91</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
       <c r="G30" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H30" s="9">
         <v>28</v>
@@ -3887,18 +3892,18 @@
         <v>105</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>70</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>19</v>
@@ -3913,13 +3918,13 @@
         <v>102</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U30" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>68</v>
       </c>
@@ -3930,12 +3935,12 @@
         <v>91</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
       <c r="G31" s="27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H31" s="9">
         <v>29</v>
@@ -3944,7 +3949,7 @@
         <v>105</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>69</v>
@@ -3964,7 +3969,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="32"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>68</v>
       </c>
@@ -3975,12 +3980,12 @@
         <v>91</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
       <c r="G32" s="27" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H32" s="9">
         <v>30</v>
@@ -3989,7 +3994,7 @@
         <v>105</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K32" s="30" t="s">
         <v>69</v>
@@ -4002,7 +4007,7 @@
       </c>
       <c r="N32" s="22"/>
       <c r="O32" s="29" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>19</v>
@@ -4017,13 +4022,13 @@
         <v>99</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U32" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>68</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>91</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
@@ -4046,7 +4051,7 @@
         <v>105</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K33" s="30" t="s">
         <v>69</v>
@@ -4059,7 +4064,7 @@
       </c>
       <c r="N33" s="22"/>
       <c r="O33" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>20</v>
@@ -4074,13 +4079,13 @@
         <v>99</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U33" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -4103,7 +4108,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="32"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -4126,7 +4131,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="32"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -4149,7 +4154,7 @@
       <c r="T36"/>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -4172,7 +4177,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="32"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -4195,7 +4200,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="32"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -4218,7 +4223,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="32"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
       <c r="C40" s="42"/>
@@ -4241,7 +4246,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
@@ -4264,7 +4269,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="32"/>
     </row>
-    <row r="42" spans="1:21" s="36" customFormat="1">
+    <row r="42" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="41"/>
       <c r="C42" s="42"/>
@@ -4287,7 +4292,7 @@
       <c r="T42" s="5"/>
       <c r="U42" s="32"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="41"/>
       <c r="C43" s="42"/>
@@ -4310,7 +4315,7 @@
       <c r="T43" s="5"/>
       <c r="U43" s="32"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="41"/>
       <c r="C44" s="42"/>
@@ -4333,7 +4338,7 @@
       <c r="T44" s="5"/>
       <c r="U44" s="32"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
@@ -4356,7 +4361,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="32"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="41"/>
       <c r="C46" s="42"/>
@@ -4379,7 +4384,7 @@
       <c r="T46" s="5"/>
       <c r="U46" s="32"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
@@ -4402,7 +4407,7 @@
       <c r="T47" s="5"/>
       <c r="U47" s="32"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
@@ -4425,7 +4430,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="32"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="41"/>
       <c r="C49" s="42"/>
@@ -4448,7 +4453,7 @@
       <c r="T49" s="5"/>
       <c r="U49" s="32"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
@@ -4471,7 +4476,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="32"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
@@ -4494,7 +4499,7 @@
       <c r="T51" s="5"/>
       <c r="U51" s="32"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="41"/>
       <c r="C52" s="42"/>
@@ -4517,7 +4522,7 @@
       <c r="T52" s="5"/>
       <c r="U52" s="32"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
@@ -4540,7 +4545,7 @@
       <c r="T53" s="5"/>
       <c r="U53" s="32"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
@@ -4563,7 +4568,7 @@
       <c r="T54" s="5"/>
       <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
@@ -4586,7 +4591,7 @@
       <c r="T55" s="5"/>
       <c r="U55" s="32"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="41"/>
       <c r="C56" s="42"/>
@@ -4609,7 +4614,7 @@
       <c r="T56" s="5"/>
       <c r="U56" s="32"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
@@ -4632,7 +4637,7 @@
       <c r="T57" s="5"/>
       <c r="U57" s="32"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="41"/>
       <c r="C58" s="42"/>
@@ -4655,7 +4660,7 @@
       <c r="T58" s="5"/>
       <c r="U58" s="32"/>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -4678,7 +4683,7 @@
       <c r="T59" s="5"/>
       <c r="U59" s="32"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
@@ -4701,7 +4706,7 @@
       <c r="T60" s="5"/>
       <c r="U60" s="32"/>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -4724,7 +4729,7 @@
       <c r="T61" s="5"/>
       <c r="U61" s="32"/>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="41"/>
       <c r="C62" s="42"/>
@@ -4747,7 +4752,7 @@
       <c r="T62" s="5"/>
       <c r="U62" s="32"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -4770,7 +4775,7 @@
       <c r="T63" s="5"/>
       <c r="U63" s="32"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="41"/>
       <c r="C64" s="42"/>
@@ -4793,7 +4798,7 @@
       <c r="T64" s="5"/>
       <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
@@ -4816,7 +4821,7 @@
       <c r="T65" s="5"/>
       <c r="U65" s="32"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
@@ -4839,7 +4844,7 @@
       <c r="T66" s="5"/>
       <c r="U66" s="32"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="41"/>
       <c r="C67" s="42"/>
@@ -4862,7 +4867,7 @@
       <c r="T67" s="5"/>
       <c r="U67" s="32"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="41"/>
       <c r="C68" s="42"/>
@@ -4885,7 +4890,7 @@
       <c r="T68" s="5"/>
       <c r="U68" s="32"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="41"/>
       <c r="C69" s="42"/>
@@ -4908,7 +4913,7 @@
       <c r="T69" s="5"/>
       <c r="U69" s="32"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="41"/>
       <c r="C70" s="42"/>
@@ -4931,7 +4936,7 @@
       <c r="T70" s="5"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="41"/>
       <c r="C71" s="42"/>
@@ -4954,7 +4959,7 @@
       <c r="T71" s="5"/>
       <c r="U71" s="32"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -4977,7 +4982,7 @@
       <c r="T72" s="5"/>
       <c r="U72" s="32"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
@@ -5005,6 +5010,11 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5020,11 +5030,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5038,23 +5043,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>34</v>
@@ -5098,7 +5103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>35</v>
@@ -5119,7 +5124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>36</v>
@@ -5136,7 +5141,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>37</v>
@@ -5153,7 +5158,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>38</v>
@@ -5168,7 +5173,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>39</v>
@@ -5181,7 +5186,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>40</v>
@@ -5194,7 +5199,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>41</v>
@@ -5207,7 +5212,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>42</v>
@@ -5220,7 +5225,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>43</v>
@@ -5235,7 +5240,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>44</v>
@@ -5250,7 +5255,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>45</v>
@@ -5265,7 +5270,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>46</v>
@@ -5280,7 +5285,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -5293,7 +5298,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5306,7 +5311,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
@@ -5319,7 +5324,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
@@ -5332,7 +5337,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -5345,7 +5350,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5358,7 +5363,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
@@ -5371,7 +5376,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
@@ -5384,7 +5389,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
@@ -5397,7 +5402,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
@@ -5410,7 +5415,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
@@ -5421,7 +5426,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
@@ -5432,7 +5437,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -5443,7 +5448,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -5454,7 +5459,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
@@ -5465,7 +5470,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
@@ -5476,7 +5481,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -5487,7 +5492,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -5498,7 +5503,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
@@ -5509,7 +5514,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
@@ -5520,7 +5525,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -5531,7 +5536,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
@@ -5542,7 +5547,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="6" t="s">
@@ -5553,7 +5558,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -5564,7 +5569,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -5575,7 +5580,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -5584,7 +5589,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -5593,7 +5598,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -5602,7 +5607,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -5611,7 +5616,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -5620,7 +5625,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -5629,7 +5634,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -5638,7 +5643,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -5647,7 +5652,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -5656,7 +5661,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -5665,7 +5670,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
